--- a/Argumente Impfen 1.2.xlsx
+++ b/Argumente Impfen 1.2.xlsx
@@ -2550,7 +2550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2558,10 +2558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2604,7 +2605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102">
+    <row r="2" spans="1:8" ht="102" hidden="1">
       <c r="A2" s="7" t="s">
         <v>459</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1">
+    <row r="3" spans="1:8" ht="42" hidden="1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>471</v>
       </c>
@@ -2654,7 +2655,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="54.75" customHeight="1">
+    <row r="4" spans="1:8" ht="54.75" hidden="1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>472</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.25">
+    <row r="5" spans="1:8" ht="38.25" hidden="1">
       <c r="A5" s="7" t="s">
         <v>473</v>
       </c>
@@ -2704,7 +2705,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="105.75" customHeight="1">
+    <row r="6" spans="1:8" ht="105.75" hidden="1" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>474</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51">
+    <row r="7" spans="1:8" ht="51" hidden="1">
       <c r="A7" s="7" t="s">
         <v>252</v>
       </c>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25">
+    <row r="8" spans="1:8" ht="38.25" hidden="1">
       <c r="A8" s="7" t="s">
         <v>661</v>
       </c>
@@ -2778,7 +2779,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="55.5" customHeight="1">
+    <row r="9" spans="1:8" ht="55.5" hidden="1" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>475</v>
       </c>
@@ -2802,7 +2803,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="69" customHeight="1">
+    <row r="10" spans="1:8" ht="69" hidden="1" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>468</v>
       </c>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="75" customHeight="1">
+    <row r="11" spans="1:8" ht="75" hidden="1" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>177</v>
       </c>
@@ -2850,7 +2851,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="58.5" customHeight="1">
+    <row r="12" spans="1:8" ht="58.5" hidden="1" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>179</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57" customHeight="1">
+    <row r="13" spans="1:8" ht="57" hidden="1" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>176</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="95.25" customHeight="1">
+    <row r="14" spans="1:8" ht="95.25" hidden="1" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>476</v>
       </c>
@@ -2926,7 +2927,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="114.75">
+    <row r="15" spans="1:8" ht="114.75" hidden="1">
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="114" customHeight="1">
+    <row r="16" spans="1:8" ht="114" hidden="1" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="124.5" customHeight="1">
+    <row r="17" spans="1:8" ht="124.5" hidden="1" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>467</v>
       </c>
@@ -3000,7 +3001,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="63.75">
+    <row r="18" spans="1:8" ht="63.75" hidden="1">
       <c r="A18" s="7" t="s">
         <v>254</v>
       </c>
@@ -3024,7 +3025,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="95.25" customHeight="1">
+    <row r="19" spans="1:8" ht="95.25" hidden="1" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>187</v>
       </c>
@@ -3048,7 +3049,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="51">
+    <row r="20" spans="1:8" ht="51" hidden="1">
       <c r="A20" s="7" t="s">
         <v>188</v>
       </c>
@@ -3072,7 +3073,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="81.75" customHeight="1">
+    <row r="21" spans="1:8" ht="81.75" hidden="1" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>481</v>
       </c>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="99.75" customHeight="1">
+    <row r="22" spans="1:8" ht="99.75" hidden="1" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>256</v>
       </c>
@@ -3120,7 +3121,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="72.75" customHeight="1">
+    <row r="23" spans="1:8" ht="72.75" hidden="1" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>189</v>
       </c>
@@ -3144,7 +3145,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="102">
+    <row r="24" spans="1:8" ht="102" hidden="1">
       <c r="A24" s="7" t="s">
         <v>436</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="34.5" customHeight="1">
+    <row r="25" spans="1:8" ht="34.5" hidden="1" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>438</v>
       </c>
@@ -3192,7 +3193,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="45.75" customHeight="1">
+    <row r="26" spans="1:8" ht="45.75" hidden="1" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>458</v>
       </c>
@@ -3214,7 +3215,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="84.75" customHeight="1">
+    <row r="27" spans="1:8" ht="84.75" hidden="1" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>483</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="94.5" customHeight="1">
+    <row r="28" spans="1:8" ht="94.5" hidden="1" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>440</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57" customHeight="1">
+    <row r="30" spans="1:8" ht="57" hidden="1" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>445</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="81" customHeight="1">
+    <row r="31" spans="1:8" ht="81" hidden="1" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>453</v>
       </c>
@@ -3332,7 +3333,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="165.75">
+    <row r="32" spans="1:8" ht="165.75" hidden="1">
       <c r="A32" s="7" t="s">
         <v>448</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="70.5" customHeight="1">
+    <row r="33" spans="1:8" ht="70.5" hidden="1" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>484</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="38.25">
+    <row r="34" spans="1:8" ht="38.25" hidden="1">
       <c r="A34" s="7" t="s">
         <v>485</v>
       </c>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="38.25">
+    <row r="35" spans="1:8" ht="38.25" hidden="1">
       <c r="A35" s="7" t="s">
         <v>486</v>
       </c>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="51" customHeight="1">
+    <row r="36" spans="1:8" ht="51" hidden="1" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>456</v>
       </c>
@@ -3454,7 +3455,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="70.5" customHeight="1">
+    <row r="37" spans="1:8" ht="70.5" hidden="1" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>487</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="87.75" customHeight="1">
+    <row r="38" spans="1:8" ht="87.75" hidden="1" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>488</v>
       </c>
@@ -3504,7 +3505,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="106.5" customHeight="1">
+    <row r="39" spans="1:8" ht="106.5" hidden="1" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>489</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="86.25" customHeight="1">
+    <row r="40" spans="1:8" ht="86.25" hidden="1" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>490</v>
       </c>
@@ -3552,7 +3553,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="228" customHeight="1">
+    <row r="41" spans="1:8" ht="228" hidden="1" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>491</v>
       </c>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="107.25" customHeight="1">
+    <row r="42" spans="1:8" ht="107.25" hidden="1" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>265</v>
       </c>
@@ -3600,7 +3601,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="67.5" customHeight="1">
+    <row r="43" spans="1:8" ht="67.5" hidden="1" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>192</v>
       </c>
@@ -3624,7 +3625,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="96" customHeight="1">
+    <row r="44" spans="1:8" ht="96" hidden="1" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>257</v>
       </c>
@@ -3648,7 +3649,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="74.25" customHeight="1">
+    <row r="45" spans="1:8" ht="74.25" hidden="1" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>258</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="123.75" customHeight="1">
+    <row r="46" spans="1:8" ht="123.75" hidden="1" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>492</v>
       </c>
@@ -3698,7 +3699,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="73.5" customHeight="1">
+    <row r="47" spans="1:8" ht="73.5" hidden="1" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>493</v>
       </c>
@@ -3722,7 +3723,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="63.75">
+    <row r="48" spans="1:8" ht="63.75" hidden="1">
       <c r="A48" s="7" t="s">
         <v>494</v>
       </c>
@@ -3746,7 +3747,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:9" ht="111.75" customHeight="1">
+    <row r="49" spans="1:9" ht="111.75" hidden="1" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>495</v>
       </c>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:9" ht="98.25" customHeight="1">
+    <row r="50" spans="1:9" ht="98.25" hidden="1" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>411</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="102.75">
+    <row r="51" spans="1:9" ht="102.75" hidden="1">
       <c r="A51" s="7" t="s">
         <v>214</v>
       </c>
@@ -3823,7 +3824,7 @@
       </c>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="45" customHeight="1">
+    <row r="52" spans="1:9" ht="45" hidden="1" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>496</v>
       </c>
@@ -3847,7 +3848,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="69.75" customHeight="1">
+    <row r="53" spans="1:9" ht="69.75" hidden="1" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>497</v>
       </c>
@@ -3871,7 +3872,7 @@
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="132.75" customHeight="1">
+    <row r="54" spans="1:9" ht="132.75" hidden="1" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>498</v>
       </c>
@@ -3895,7 +3896,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="90.75" customHeight="1">
+    <row r="55" spans="1:9" ht="90.75" hidden="1" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>227</v>
       </c>
@@ -3919,7 +3920,7 @@
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="63.75" customHeight="1">
+    <row r="56" spans="1:9" ht="63.75" hidden="1" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>499</v>
       </c>
@@ -3943,7 +3944,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="158.25" customHeight="1">
+    <row r="57" spans="1:9" ht="158.25" hidden="1" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>500</v>
       </c>
@@ -3967,7 +3968,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="98.25" customHeight="1">
+    <row r="58" spans="1:9" ht="98.25" hidden="1" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>501</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="82.5" customHeight="1">
+    <row r="59" spans="1:9" ht="82.5" hidden="1" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>502</v>
       </c>
@@ -4017,7 +4018,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="38.25">
+    <row r="60" spans="1:9" ht="38.25" hidden="1">
       <c r="A60" s="7" t="s">
         <v>223</v>
       </c>
@@ -4041,7 +4042,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="55.5" customHeight="1">
+    <row r="61" spans="1:9" ht="55.5" hidden="1" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>503</v>
       </c>
@@ -4065,7 +4066,7 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="99" customHeight="1">
+    <row r="62" spans="1:9" ht="99" hidden="1" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>504</v>
       </c>
@@ -4089,7 +4090,7 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="171.75" customHeight="1">
+    <row r="63" spans="1:9" ht="171.75" hidden="1" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>505</v>
       </c>
@@ -4113,7 +4114,7 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="69" customHeight="1">
+    <row r="64" spans="1:9" ht="69" hidden="1" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>234</v>
       </c>
@@ -4137,7 +4138,7 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="84" customHeight="1">
+    <row r="65" spans="1:8" ht="84" hidden="1" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>506</v>
       </c>
@@ -4161,7 +4162,7 @@
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="102">
+    <row r="66" spans="1:8" ht="102" hidden="1">
       <c r="A66" s="7" t="s">
         <v>507</v>
       </c>
@@ -4185,7 +4186,7 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="127.5">
+    <row r="67" spans="1:8" ht="127.5" hidden="1">
       <c r="A67" s="7" t="s">
         <v>180</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="132.75" customHeight="1">
+    <row r="68" spans="1:8" ht="132.75" hidden="1" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>181</v>
       </c>
@@ -4235,7 +4236,7 @@
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="106.5" customHeight="1">
+    <row r="69" spans="1:8" ht="106.5" hidden="1" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>275</v>
       </c>
@@ -4259,7 +4260,7 @@
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="116.25" customHeight="1">
+    <row r="70" spans="1:8" ht="116.25" hidden="1" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>276</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="55.5" customHeight="1">
+    <row r="71" spans="1:8" ht="55.5" hidden="1" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>183</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="44.25" customHeight="1">
+    <row r="72" spans="1:8" ht="44.25" hidden="1" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>508</v>
       </c>
@@ -4335,7 +4336,7 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="46.5" customHeight="1">
+    <row r="73" spans="1:8" ht="46.5" hidden="1" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>509</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="133.5" customHeight="1">
+    <row r="74" spans="1:8" ht="133.5" hidden="1" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>266</v>
       </c>
@@ -4385,7 +4386,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="56.25" customHeight="1">
+    <row r="75" spans="1:8" ht="56.25" hidden="1" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>510</v>
       </c>
@@ -4409,7 +4410,7 @@
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="97.5" customHeight="1">
+    <row r="76" spans="1:8" ht="97.5" hidden="1" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>511</v>
       </c>
@@ -4433,7 +4434,7 @@
       </c>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" ht="84" customHeight="1">
+    <row r="77" spans="1:8" ht="84" hidden="1" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>410</v>
       </c>
@@ -4457,7 +4458,7 @@
       </c>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" ht="158.25" customHeight="1">
+    <row r="78" spans="1:8" ht="158.25" hidden="1" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>512</v>
       </c>
@@ -4481,7 +4482,7 @@
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="50.25" customHeight="1">
+    <row r="79" spans="1:8" ht="50.25" hidden="1" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>513</v>
       </c>
@@ -4505,7 +4506,7 @@
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="54" customHeight="1">
+    <row r="80" spans="1:8" ht="54" hidden="1" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>403</v>
       </c>
@@ -4529,7 +4530,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="114.75">
+    <row r="81" spans="1:8" ht="114.75" hidden="1">
       <c r="A81" s="7" t="s">
         <v>514</v>
       </c>
@@ -4553,7 +4554,7 @@
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1">
+    <row r="82" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>515</v>
       </c>
@@ -4577,7 +4578,7 @@
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="45" customHeight="1">
+    <row r="83" spans="1:8" ht="45" hidden="1" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>516</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="76.5">
+    <row r="85" spans="1:8" ht="76.5" hidden="1">
       <c r="A85" s="7" t="s">
         <v>517</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="69" customHeight="1">
+    <row r="86" spans="1:8" ht="69" hidden="1" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>518</v>
       </c>
@@ -4677,7 +4678,7 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="82.5" customHeight="1">
+    <row r="87" spans="1:8" ht="82.5" hidden="1" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>461</v>
       </c>
@@ -4701,7 +4702,7 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="75" customHeight="1">
+    <row r="88" spans="1:8" ht="75" hidden="1" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>463</v>
       </c>
@@ -4725,7 +4726,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="47.25" customHeight="1">
+    <row r="89" spans="1:8" ht="47.25" hidden="1" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>186</v>
       </c>
@@ -4749,7 +4750,7 @@
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" ht="108" customHeight="1">
+    <row r="90" spans="1:8" ht="108" hidden="1" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>519</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="76.5">
+    <row r="91" spans="1:8" ht="76.5" hidden="1">
       <c r="A91" s="7" t="s">
         <v>520</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="121.5" customHeight="1">
+    <row r="92" spans="1:8" ht="121.5" hidden="1" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>521</v>
       </c>
@@ -4875,7 +4876,7 @@
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="135" customHeight="1">
+    <row r="95" spans="1:8" ht="135" hidden="1" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>298</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="127.5">
+    <row r="97" spans="1:8" ht="127.5" hidden="1">
       <c r="A97" s="7" t="s">
         <v>290</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="111.75" customHeight="1">
+    <row r="98" spans="1:8" ht="111.75" hidden="1" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>292</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="76.5">
+    <row r="99" spans="1:8" ht="76.5" hidden="1">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -5001,7 +5002,7 @@
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="112.5" customHeight="1">
+    <row r="100" spans="1:8" ht="112.5" hidden="1" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>301</v>
       </c>
@@ -5025,7 +5026,7 @@
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="51">
+    <row r="101" spans="1:8" ht="51" hidden="1">
       <c r="A101" s="7" t="s">
         <v>528</v>
       </c>
@@ -5049,7 +5050,7 @@
       </c>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" ht="66" customHeight="1">
+    <row r="102" spans="1:8" ht="66" hidden="1" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>529</v>
       </c>
@@ -5073,7 +5074,7 @@
       </c>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="86.25" customHeight="1">
+    <row r="103" spans="1:8" ht="86.25" hidden="1" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>303</v>
       </c>
@@ -5097,7 +5098,7 @@
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="111.75" customHeight="1">
+    <row r="104" spans="1:8" ht="111.75" hidden="1" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>530</v>
       </c>
@@ -5121,7 +5122,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="75.75" customHeight="1">
+    <row r="105" spans="1:8" ht="75.75" hidden="1" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>531</v>
       </c>
@@ -5145,7 +5146,7 @@
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="76.5">
+    <row r="106" spans="1:8" ht="76.5" hidden="1">
       <c r="A106" s="7" t="s">
         <v>532</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" customHeight="1">
+    <row r="107" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>533</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="25.5">
+    <row r="108" spans="1:8" ht="25.5" hidden="1">
       <c r="A108" s="7" t="s">
         <v>534</v>
       </c>
@@ -5221,7 +5222,7 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="46.5" customHeight="1">
+    <row r="109" spans="1:8" ht="46.5" hidden="1" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>535</v>
       </c>
@@ -5245,7 +5246,7 @@
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="63.75">
+    <row r="110" spans="1:8" ht="63.75" hidden="1">
       <c r="A110" s="7" t="s">
         <v>536</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="51">
+    <row r="111" spans="1:8" ht="51" hidden="1">
       <c r="A111" s="7" t="s">
         <v>57</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="25.5">
+    <row r="112" spans="1:8" ht="25.5" hidden="1">
       <c r="A112" s="7" t="s">
         <v>60</v>
       </c>
@@ -5321,7 +5322,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="48.75" customHeight="1">
+    <row r="113" spans="1:8" ht="48.75" hidden="1" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>79</v>
       </c>
@@ -5345,7 +5346,7 @@
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="50.25" customHeight="1">
+    <row r="114" spans="1:8" ht="50.25" hidden="1" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>537</v>
       </c>
@@ -5369,7 +5370,7 @@
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="30" customHeight="1">
+    <row r="115" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>538</v>
       </c>
@@ -5393,7 +5394,7 @@
       </c>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="58.5" customHeight="1">
+    <row r="116" spans="1:8" ht="58.5" hidden="1" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>469</v>
       </c>
@@ -5417,7 +5418,7 @@
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="35.25" customHeight="1">
+    <row r="117" spans="1:8" ht="35.25" hidden="1" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>539</v>
       </c>
@@ -5441,7 +5442,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="55.5" customHeight="1">
+    <row r="118" spans="1:8" ht="55.5" hidden="1" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>540</v>
       </c>
@@ -5465,7 +5466,7 @@
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="75" customHeight="1">
+    <row r="119" spans="1:8" ht="75" hidden="1" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>541</v>
       </c>
@@ -5489,7 +5490,7 @@
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="46.5" customHeight="1">
+    <row r="120" spans="1:8" ht="46.5" hidden="1" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>542</v>
       </c>
@@ -5513,7 +5514,7 @@
       </c>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="32.25" customHeight="1">
+    <row r="121" spans="1:8" ht="32.25" hidden="1" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>407</v>
       </c>
@@ -5537,7 +5538,7 @@
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="84" customHeight="1">
+    <row r="122" spans="1:8" ht="84" hidden="1" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>543</v>
       </c>
@@ -5561,7 +5562,7 @@
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="63.75">
+    <row r="123" spans="1:8" ht="63.75" hidden="1">
       <c r="A123" s="7" t="s">
         <v>544</v>
       </c>
@@ -5585,7 +5586,7 @@
       </c>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="53.25" customHeight="1">
+    <row r="124" spans="1:8" ht="53.25" hidden="1" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>545</v>
       </c>
@@ -5609,7 +5610,7 @@
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="48.75" customHeight="1">
+    <row r="125" spans="1:8" ht="48.75" hidden="1" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>546</v>
       </c>
@@ -5633,7 +5634,7 @@
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="38.25">
+    <row r="126" spans="1:8" ht="38.25" hidden="1">
       <c r="A126" s="7" t="s">
         <v>547</v>
       </c>
@@ -5657,7 +5658,7 @@
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="51" customHeight="1">
+    <row r="127" spans="1:8" ht="51" hidden="1" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>548</v>
       </c>
@@ -5686,6 +5687,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H127">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Kosten/Nutzen"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A26:H47">
       <sortCondition ref="E2:E126"/>
     </sortState>

--- a/Argumente Impfen 1.2.xlsx
+++ b/Argumente Impfen 1.2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="687">
   <si>
     <t>Hohes Risiko von Impfschäden und Nebenwirkungen</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Auszug aus Nittinger, die Impfzeit S. 99-111.</t>
   </si>
   <si>
-    <t>fragwürdig</t>
-  </si>
-  <si>
     <t>Am bedeutungsvollsten bleibt die Bevölkerungsverminderung in den geimpften Staaten, das hereinbrechende Deficit mit deren Eintritt in die vierte Impfgeneration, wo noch vor einem oder zwei Jahrzehnten eine ansehnliche Vermehrung stattfand.</t>
   </si>
   <si>
@@ -927,9 +924,6 @@
     <t>Buchwald, Impfen. Das Geschäft mit der Angst, S. 137.</t>
   </si>
   <si>
-    <t>hinderlich</t>
-  </si>
-  <si>
     <t>Hirte, Impfen, Pro &amp; Contra, S. 21.</t>
   </si>
   <si>
@@ -997,9 +991,6 @@
   </si>
   <si>
     <t>Die folgenden Tafeln zeigen, daß die exogenen Blattern von der äußeren Haut auf die mit ihr im Bau sehr übereinstimmende Schleimhaut theuer, sehr theuer "zurückgeführt" sind; daß das Vaccinegift dem Körper wirklich "aufgedrungen" worden ist und darin "Jahre andauernde materielle Veränderungen gesetzt" hat, welche den Symptomen der meisten jetzt herrschenden Krankheiten innig verbunden sind. Die Blatter ist nicht die Pockenkrankheit selbst, sondern blos eine ihrer Krisen.</t>
-  </si>
-  <si>
-    <t>Religion-/Naturgesetz</t>
   </si>
   <si>
     <t>Nittinger, Das falsche Dogma, S. 39.</t>
@@ -1797,12 +1788,6 @@
     <t>Machtinteressen</t>
   </si>
   <si>
-    <t>gesundheitsschädlich</t>
-  </si>
-  <si>
-    <t>gesundheitsfördernd</t>
-  </si>
-  <si>
     <t>Kein Umstand des Lebens [Anm.: Schwangerschaft, Zahnen] ist Gegenanzeige zu der Kuhpockenimpfung.</t>
   </si>
   <si>
@@ -2044,12 +2029,6 @@
     <t>geht mehr um die freie Entscheidung, die das Impfgesetzt beschneidet.</t>
   </si>
   <si>
-    <t>Bezug auf Nebenwirkungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachteilige Folgen der Impfung: Von besonderer Wichtigkeit ist das Impfüferysipel. Dasselbe unterscheidet sich in bezug auf seinen Verlauf nicht von der gewöhnlichen Wundrose. Die Prognose ist sehr verschieden, aber unter schlechten hygienischen Verhältnissen eine besonders ungünstige. Es hat öfter allerlei Nachkrankheiten wie z.B. vielfache Abscesse im Gefolge und kann auf verschiedne Weise am häufigsten unter Collapsus-Erscheinungen zum Tode führen. </t>
-  </si>
-  <si>
     <t>Wir Impfgegner behaupten sogar, und wohl mit Recht, daß die Pocken, genau wie Cholera und Pest, schon längst verschwunden wären, wenn man auch gegen die Pocken nicht impfen, ins Blut der Menschen nicht immer von neuem "animalen" Pockeneiter=Samen streute, es so für die Pocken empfänglicher machend. Wer Brennesselsamen sät, kann doch nur Brennesseln immer wieder ernten. Wer Schirlings=Unkrautsamen streut, dem wächst ein Schirlingsbeet. Und dem Impfgeschäft sollte das sich stets treu bleibende Naturgesetz eine - fette Extrawurst braten und ihm aus Pockeneitersamen Gesundheit erblühen lassen?</t>
   </si>
   <si>
@@ -2077,9 +2056,6 @@
   </si>
   <si>
     <t>Auch die Pocken=Impfung der Schafe war einst eingeführt und einst genau so überschwänglich gepriesen worden, wie die Pockenimpfung unserer Kinder. Da sich aber herausstellte, daß die Impfung der Schafe gegen die Pocken die Schafställe - leerte, und daß die armen Tiere infolge der Impfung wie die Fliegen dahinstarben, hat der Deutsche Reichstag im Jahre 1880 die Pockenimpfung der Schafe über Antrag Virchows bei Strafe verboten. Sollten unsere kleinen Kinder uns nicht mindestens ebenso lieb und wichtig sein, wie diese - Schafe?</t>
-  </si>
-  <si>
-    <t>Max Bruker, Ilse Gutjahr, Biologischer Ratgeber für Mutter und Kind, 5. Auflage, Lahnstein, 1987, S. 240.</t>
   </si>
   <si>
     <t>Gerhard Buchwald, Impfen. Das Geschäft mit der Angst, 3. Auflage, Lahnstein, 1995, S. 131-134.</t>
@@ -2183,9 +2159,6 @@
     <t>Schwarz, Impfen - eine verborgene Gefahr, S. 72-73.</t>
   </si>
   <si>
-    <t>Poliomyelitis gibt es vermutlich seit jeher, sie zeigte sich aber, wenn überhaupt, nur mit grippeähnlichen Symptomen. Lähmungen gab es selten, Epidemien gar nicht. Erst seit Ende des 19. Jahrhunderts erschienen plötzlich die Epidemien und Lähmungen. [...] Besonders der Einsatz von bestimmten Pestiziden, aber auch die Pockenimpfung sowie die Polioschluckimpfung für den Ausbruch der Krankheit verantwortlich ist. Solange diese Auslöser bei uns nicht mehr üblich sind, brauchen wir keine Angst vor Kinderlähmung zu haben.</t>
-  </si>
-  <si>
     <t>voran geht die Theorie, dass Fehlernährung durch Zucker- und Weißmehlkonsum, zu viel tierischem Fett und Eiweiß, Antibiotika, andere Impfungen und das Insektizid DDT die Ansteckung und Vermehrung von Polio begünstigen/auslösen. Darauf bezieht sich auch das "strategische Vorbereiten"</t>
   </si>
   <si>
@@ -2197,6 +2170,18 @@
   </si>
   <si>
     <t>Impfungen schaden einem Gesunden und besonders einem bereits Erkrankten und vertiefen seine Störung oft bis zur Unheilbarkeit. Fatal kann sich das Zusammentreffen der Krankheit mit dem gleichen Impfstoff auswirken!</t>
+  </si>
+  <si>
+    <t>im Kapitel Allergien. Man bekommt den Eindruck, Impfungen alleine sind Ursache dafür. Frühkindliche Allergien liegen daran, dass seit Generationen geimpft wird und das die Erbanlage negativ verändern würde. Graf, S. 25.</t>
+  </si>
+  <si>
+    <t>Graf, Die Impfentscheidung, S. 95-96.</t>
+  </si>
+  <si>
+    <t>Diphtherie ist mit Tetracyclinen behandelbar laut Graf? Er vermerkt außerdem eine Todesrate von 3-9% bei schlechten Bedingungen?</t>
+  </si>
+  <si>
+    <t>Basierend auf der Theorie, dass der HiB Erreger natürlich in jedem Menschen im Nasen-, Rachen- und Atemwegsraum zu finden ist und bei Atemwegsinfekten beteiligt ist.</t>
   </si>
   <si>
     <r>
@@ -2205,11 +2190,10 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[Anm:???</t>
+      <t>[Anm.: Prionen sind entartet Proteine die Hirnentzündungen auslösen können]</t>
     </r>
     <r>
       <rPr>
@@ -2218,20 +2202,38 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>], Lücken füllende neue Erreger, Sykosis, Krebs) beteiligt zu sein.</t>
+      <t>, Lücken füllende neue Erreger, Sykosis, Krebs) beteiligt zu sein.</t>
     </r>
   </si>
   <si>
-    <t>im Kapitel Allergien. Man bekommt den Eindruck, Impfungen alleine sind Ursache dafür. Frühkindliche Allergien liegen daran, dass seit Generationen geimpft wird und das die Erbanlage negativ verändern würde. Graf, S. 25.</t>
-  </si>
-  <si>
-    <t>Graf, Die Impfentscheidung, S. 95-96.</t>
-  </si>
-  <si>
-    <t>Diphtherie ist mit Tetracyclinen behandelbar laut Graf? Er vermerkt außerdem eine Todesrate von 3-9% bei schlechten Bedingungen?</t>
-  </si>
-  <si>
-    <t>Basierend auf der Theorie, dass der HiB Erreger natürlich in jedem Menschen im Nasen-, Rachen- und Atemwegsraum zu finden ist und bei Atemwegsinfekten beteiligt ist.</t>
+    <t>Poliomyelitis gibt es vermutlich seit jeher, sie zeigte sich aber, wenn überhaupt, nur mit grippeähnlichen Symptomen. Lähmungen gab es selten, Epidemien gar nicht. Erst seit Ende des 19. Jahrhunderts erschienen plötzlich die Epidemien und Lähmungen. [...] Zusammenfassend wird deutlich, dass besonders der Einsatz von bestimmten Pestiziden, aber auch die Pockenimpfung sowie die Polioschluckimpfung für den Ausbruch der Krankheit verantwortlich ist. Solange diese Auslöser bei uns nicht mehr üblich sind, brauchen wir keine Angst vor Kinderlähmung zu haben.</t>
+  </si>
+  <si>
+    <t>Max Bruker, Ilse Gutjahr, Biologischer Ratgeber für Mutter und Kind, 5. Auflage, Lahnstein, 1987, S. 241.</t>
+  </si>
+  <si>
+    <t>Bei Vermeidung von raffinierten Kohlenhydragen, d.h. Fabrikzucker und Auszugsmehlen ist eine Ansteckung mit dem Kinderlähmungsvirus nicht möglich.</t>
+  </si>
+  <si>
+    <t>Fragwürdigkeit</t>
+  </si>
+  <si>
+    <t>Gesundheitsschädigung</t>
+  </si>
+  <si>
+    <t>Beeinträchtigung</t>
+  </si>
+  <si>
+    <t>Zwecklosigkeit</t>
+  </si>
+  <si>
+    <t>ohne Wirkung</t>
+  </si>
+  <si>
+    <t>Gesundheitsförderung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachteilige Folgen der Impfung: Von besonderer Wichtigkeit ist das Impferysipel [Anm.: Erysipel=Wundrose, Rotlauf, durch Streptokokken übertragen.]. Dasselbe unterscheidet sich in bezug auf seinen Verlauf nicht von der gewöhnlichen Wundrose. Die Prognose ist sehr verschieden, aber unter schlechten hygienischen Verhältnissen eine besonders ungünstige. Es hat öfter allerlei Nachkrankheiten wie z.B. vielfache Abscesse im Gefolge und kann auf verschiedne Weise am häufigsten unter Collapsus-Erscheinungen zum Tode führen. </t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2285,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2650,18 +2651,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" style="3" customWidth="1"/>
@@ -2696,13 +2697,13 @@
     </row>
     <row r="2" spans="1:8" ht="102">
       <c r="A2" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>144</v>
@@ -2711,7 +2712,7 @@
         <v>1801</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>44</v>
@@ -2722,13 +2723,13 @@
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>144</v>
@@ -2737,7 +2738,7 @@
         <v>1801</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>44</v>
@@ -2746,13 +2747,13 @@
     </row>
     <row r="4" spans="1:8" ht="54.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>144</v>
@@ -2761,7 +2762,7 @@
         <v>1801</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>44</v>
@@ -2772,13 +2773,13 @@
     </row>
     <row r="5" spans="1:8" ht="38.25">
       <c r="A5" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>144</v>
@@ -2787,7 +2788,7 @@
         <v>1801</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>44</v>
@@ -2796,13 +2797,13 @@
     </row>
     <row r="6" spans="1:8" ht="105.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>144</v>
@@ -2820,15 +2821,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+    <row r="7" spans="1:8" ht="51">
       <c r="A7" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>144</v>
@@ -2837,7 +2838,7 @@
         <v>1801</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>44</v>
@@ -2846,13 +2847,13 @@
     </row>
     <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>144</v>
@@ -2861,7 +2862,7 @@
         <v>1801</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
@@ -2870,13 +2871,13 @@
     </row>
     <row r="9" spans="1:8" ht="55.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>144</v>
@@ -2885,7 +2886,7 @@
         <v>1801</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>44</v>
@@ -2894,13 +2895,13 @@
     </row>
     <row r="10" spans="1:8" ht="69" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>144</v>
@@ -2918,13 +2919,13 @@
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>144</v>
@@ -2933,7 +2934,7 @@
         <v>1801</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>44</v>
@@ -2945,10 +2946,10 @@
         <v>159</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>144</v>
@@ -2957,13 +2958,13 @@
         <v>1801</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57" customHeight="1">
@@ -2971,10 +2972,10 @@
         <v>157</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>144</v>
@@ -2983,7 +2984,7 @@
         <v>1801</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>44</v>
@@ -2994,13 +2995,13 @@
     </row>
     <row r="14" spans="1:8" ht="95.25" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>144</v>
@@ -3009,7 +3010,7 @@
         <v>1801</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
@@ -3021,10 +3022,10 @@
         <v>158</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>144</v>
@@ -3033,7 +3034,7 @@
         <v>1801</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>44</v>
@@ -3042,13 +3043,13 @@
     </row>
     <row r="16" spans="1:8" ht="63.75">
       <c r="A16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>144</v>
@@ -3057,7 +3058,7 @@
         <v>1802</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>44</v>
@@ -3066,13 +3067,13 @@
     </row>
     <row r="17" spans="1:8" ht="102">
       <c r="A17" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>144</v>
@@ -3093,10 +3094,10 @@
         <v>166</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>144</v>
@@ -3105,7 +3106,7 @@
         <v>1802</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>44</v>
@@ -3117,10 +3118,10 @@
         <v>167</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>144</v>
@@ -3129,7 +3130,7 @@
         <v>1802</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>44</v>
@@ -3138,13 +3139,13 @@
     </row>
     <row r="20" spans="1:8" ht="81.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>144</v>
@@ -3153,7 +3154,7 @@
         <v>1802</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>44</v>
@@ -3162,13 +3163,13 @@
     </row>
     <row r="21" spans="1:8" ht="99.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>144</v>
@@ -3177,7 +3178,7 @@
         <v>1802</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>44</v>
@@ -3189,10 +3190,10 @@
         <v>168</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>144</v>
@@ -3201,7 +3202,7 @@
         <v>1802</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>44</v>
@@ -3210,13 +3211,13 @@
     </row>
     <row r="23" spans="1:8" ht="102">
       <c r="A23" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>144</v>
@@ -3225,24 +3226,24 @@
         <v>1802</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>144</v>
@@ -3251,20 +3252,20 @@
         <v>1802</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="45.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>144</v>
@@ -3273,20 +3274,20 @@
         <v>1802</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="84.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>144</v>
@@ -3295,7 +3296,7 @@
         <v>1802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>44</v>
@@ -3306,13 +3307,13 @@
     </row>
     <row r="27" spans="1:8" ht="94.5" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>144</v>
@@ -3321,20 +3322,20 @@
         <v>1802</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="69.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>144</v>
@@ -3343,7 +3344,7 @@
         <v>1802</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
@@ -3352,13 +3353,13 @@
     </row>
     <row r="29" spans="1:8" ht="57" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>144</v>
@@ -3367,20 +3368,20 @@
         <v>1802</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="124.5" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>144</v>
@@ -3398,13 +3399,13 @@
     </row>
     <row r="31" spans="1:8" ht="165.75">
       <c r="A31" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>144</v>
@@ -3413,22 +3414,22 @@
         <v>1803</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="81" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>144</v>
@@ -3446,13 +3447,13 @@
     </row>
     <row r="33" spans="1:9" ht="70.5" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>144</v>
@@ -3461,24 +3462,24 @@
         <v>1803</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="38.25">
       <c r="A34" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>144</v>
@@ -3487,7 +3488,7 @@
         <v>1803</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>44</v>
@@ -3496,13 +3497,13 @@
     </row>
     <row r="35" spans="1:9" ht="38.25">
       <c r="A35" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>144</v>
@@ -3511,7 +3512,7 @@
         <v>1803</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>44</v>
@@ -3520,13 +3521,13 @@
     </row>
     <row r="36" spans="1:9" ht="51" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>144</v>
@@ -3535,7 +3536,7 @@
         <v>1803</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>44</v>
@@ -3544,13 +3545,13 @@
     </row>
     <row r="37" spans="1:9" ht="70.5" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>144</v>
@@ -3559,7 +3560,7 @@
         <v>1803</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>44</v>
@@ -3570,13 +3571,13 @@
     </row>
     <row r="38" spans="1:9" ht="87.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>144</v>
@@ -3585,7 +3586,7 @@
         <v>1803</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>44</v>
@@ -3594,13 +3595,13 @@
     </row>
     <row r="39" spans="1:9" ht="106.5" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>144</v>
@@ -3620,13 +3621,13 @@
     </row>
     <row r="40" spans="1:9" ht="86.25" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>144</v>
@@ -3635,20 +3636,20 @@
         <v>1803</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="123.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>144</v>
@@ -3666,13 +3667,13 @@
     </row>
     <row r="42" spans="1:9" ht="228" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>144</v>
@@ -3681,7 +3682,7 @@
         <v>1808</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>44</v>
@@ -3690,13 +3691,13 @@
     </row>
     <row r="43" spans="1:9" ht="107.25" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>144</v>
@@ -3705,7 +3706,7 @@
         <v>1808</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>44</v>
@@ -3717,10 +3718,10 @@
         <v>170</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>144</v>
@@ -3729,7 +3730,7 @@
         <v>1808</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>44</v>
@@ -3738,13 +3739,13 @@
     </row>
     <row r="45" spans="1:9" ht="96" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>144</v>
@@ -3753,7 +3754,7 @@
         <v>1808</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>44</v>
@@ -3762,13 +3763,13 @@
     </row>
     <row r="46" spans="1:9" ht="74.25" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>144</v>
@@ -3777,24 +3778,24 @@
         <v>1808</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="73.5" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>144</v>
@@ -3810,15 +3811,15 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:9" ht="102.75">
+    <row r="48" spans="1:9" ht="115.5">
       <c r="A48" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="C48" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>144</v>
@@ -3827,7 +3828,7 @@
         <v>1820</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>44</v>
@@ -3837,13 +3838,13 @@
     </row>
     <row r="49" spans="1:8" ht="63.75">
       <c r="A49" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>144</v>
@@ -3861,13 +3862,13 @@
     </row>
     <row r="50" spans="1:8" ht="111.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>144</v>
@@ -3885,13 +3886,13 @@
     </row>
     <row r="51" spans="1:8" ht="98.25" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>144</v>
@@ -3900,24 +3901,24 @@
         <v>1820</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>144</v>
@@ -3926,7 +3927,7 @@
         <v>1820</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>44</v>
@@ -3935,13 +3936,13 @@
     </row>
     <row r="53" spans="1:8" ht="69.75" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>144</v>
@@ -3950,7 +3951,7 @@
         <v>1820</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>44</v>
@@ -3959,13 +3960,13 @@
     </row>
     <row r="54" spans="1:8" ht="132.75" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>144</v>
@@ -3974,7 +3975,7 @@
         <v>1820</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>44</v>
@@ -3983,13 +3984,13 @@
     </row>
     <row r="55" spans="1:8" ht="90.75" customHeight="1">
       <c r="A55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>144</v>
@@ -3998,7 +3999,7 @@
         <v>1820</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>44</v>
@@ -4007,13 +4008,13 @@
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>144</v>
@@ -4022,7 +4023,7 @@
         <v>1820</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>44</v>
@@ -4031,13 +4032,13 @@
     </row>
     <row r="57" spans="1:8" ht="158.25" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>144</v>
@@ -4046,7 +4047,7 @@
         <v>1820</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>44</v>
@@ -4055,13 +4056,13 @@
     </row>
     <row r="58" spans="1:8" ht="98.25" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>144</v>
@@ -4070,24 +4071,24 @@
         <v>1820</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="82.5" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>144</v>
@@ -4096,7 +4097,7 @@
         <v>1820</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>44</v>
@@ -4105,13 +4106,13 @@
     </row>
     <row r="60" spans="1:8" ht="38.25">
       <c r="A60" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="C60" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>144</v>
@@ -4120,7 +4121,7 @@
         <v>1820</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>44</v>
@@ -4129,13 +4130,13 @@
     </row>
     <row r="61" spans="1:8" ht="55.5" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>144</v>
@@ -4144,7 +4145,7 @@
         <v>1820</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>44</v>
@@ -4153,13 +4154,13 @@
     </row>
     <row r="62" spans="1:8" ht="99" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>144</v>
@@ -4168,7 +4169,7 @@
         <v>1820</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>44</v>
@@ -4177,13 +4178,13 @@
     </row>
     <row r="63" spans="1:8" ht="171.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>144</v>
@@ -4192,7 +4193,7 @@
         <v>1820</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>44</v>
@@ -4201,13 +4202,13 @@
     </row>
     <row r="64" spans="1:8" ht="69" customHeight="1">
       <c r="A64" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="C64" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>144</v>
@@ -4216,7 +4217,7 @@
         <v>1820</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>44</v>
@@ -4225,13 +4226,13 @@
     </row>
     <row r="65" spans="1:8" ht="84" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>144</v>
@@ -4240,22 +4241,22 @@
         <v>1820</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="102">
+    <row r="66" spans="1:8" ht="114.75">
       <c r="A66" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>144</v>
@@ -4264,22 +4265,22 @@
         <v>1828</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="127.5">
+    <row r="67" spans="1:8" ht="153">
       <c r="A67" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>144</v>
@@ -4294,7 +4295,7 @@
         <v>44</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="132.75" customHeight="1">
@@ -4302,10 +4303,10 @@
         <v>161</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>144</v>
@@ -4314,7 +4315,7 @@
         <v>1830</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>44</v>
@@ -4323,13 +4324,13 @@
     </row>
     <row r="69" spans="1:8" ht="106.5" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>144</v>
@@ -4338,7 +4339,7 @@
         <v>1830</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>44</v>
@@ -4347,13 +4348,13 @@
     </row>
     <row r="70" spans="1:8" ht="116.25" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>144</v>
@@ -4362,13 +4363,13 @@
         <v>1830</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="55.5" customHeight="1">
@@ -4376,10 +4377,10 @@
         <v>162</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>144</v>
@@ -4388,24 +4389,24 @@
         <v>1830</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="44.25" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>144</v>
@@ -4414,7 +4415,7 @@
         <v>1830</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>44</v>
@@ -4423,13 +4424,13 @@
     </row>
     <row r="73" spans="1:8" ht="46.5" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>144</v>
@@ -4438,24 +4439,24 @@
         <v>1830</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="133.5" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>144</v>
@@ -4464,7 +4465,7 @@
         <v>1830</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>44</v>
@@ -4473,13 +4474,13 @@
     </row>
     <row r="75" spans="1:8" ht="56.25" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>144</v>
@@ -4488,7 +4489,7 @@
         <v>1830</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>44</v>
@@ -4497,13 +4498,13 @@
     </row>
     <row r="76" spans="1:8" ht="97.5" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>144</v>
@@ -4512,7 +4513,7 @@
         <v>1866</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>44</v>
@@ -4521,13 +4522,13 @@
     </row>
     <row r="77" spans="1:8" ht="84" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>144</v>
@@ -4536,7 +4537,7 @@
         <v>1866</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>44</v>
@@ -4545,13 +4546,13 @@
     </row>
     <row r="78" spans="1:8" ht="158.25" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>144</v>
@@ -4560,7 +4561,7 @@
         <v>1866</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>44</v>
@@ -4569,13 +4570,13 @@
     </row>
     <row r="79" spans="1:8" ht="50.25" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>144</v>
@@ -4584,7 +4585,7 @@
         <v>1866</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>44</v>
@@ -4593,13 +4594,13 @@
     </row>
     <row r="80" spans="1:8" ht="54" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>144</v>
@@ -4608,22 +4609,22 @@
         <v>1866</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="1:8" ht="114.75">
+    <row r="81" spans="1:8" ht="127.5">
       <c r="A81" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>144</v>
@@ -4632,7 +4633,7 @@
         <v>1884</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>44</v>
@@ -4641,13 +4642,13 @@
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>144</v>
@@ -4656,7 +4657,7 @@
         <v>1884</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>44</v>
@@ -4665,13 +4666,13 @@
     </row>
     <row r="83" spans="1:8" ht="45" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>144</v>
@@ -4680,7 +4681,7 @@
         <v>1884</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>44</v>
@@ -4689,13 +4690,13 @@
     </row>
     <row r="84" spans="1:8" ht="76.5">
       <c r="A84" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>144</v>
@@ -4704,7 +4705,7 @@
         <v>1888</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>44</v>
@@ -4713,15 +4714,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="97.5" customHeight="1">
+    <row r="85" spans="1:8" ht="102">
       <c r="A85" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>144</v>
@@ -4730,24 +4731,24 @@
         <v>1888</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51">
       <c r="A86" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>144</v>
@@ -4765,13 +4766,13 @@
     </row>
     <row r="87" spans="1:8" ht="69" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>144</v>
@@ -4789,13 +4790,13 @@
     </row>
     <row r="88" spans="1:8" ht="82.5" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>144</v>
@@ -4804,7 +4805,7 @@
         <v>1888</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>44</v>
@@ -4813,13 +4814,13 @@
     </row>
     <row r="89" spans="1:8" ht="75" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>144</v>
@@ -4828,7 +4829,7 @@
         <v>1888</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>44</v>
@@ -4840,10 +4841,10 @@
         <v>165</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>144</v>
@@ -4852,7 +4853,7 @@
         <v>1888</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>44</v>
@@ -4861,13 +4862,13 @@
     </row>
     <row r="91" spans="1:8" ht="108" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>144</v>
@@ -4876,24 +4877,24 @@
         <v>1888</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="121.5" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>144</v>
@@ -4902,7 +4903,7 @@
         <v>1888</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>44</v>
@@ -4911,13 +4912,13 @@
     </row>
     <row r="93" spans="1:8" ht="74.25" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>144</v>
@@ -4926,24 +4927,24 @@
         <v>1888</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="127.5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="140.25">
       <c r="A94" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="C94" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>144</v>
@@ -4952,24 +4953,24 @@
         <v>1901</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="120" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="140.25">
       <c r="A95" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>144</v>
@@ -4978,22 +4979,22 @@
         <v>1901</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="135" customHeight="1">
+    <row r="96" spans="1:8" ht="140.25">
       <c r="A96" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>144</v>
@@ -5011,13 +5012,13 @@
     </row>
     <row r="97" spans="1:8" ht="267.75">
       <c r="A97" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>144</v>
@@ -5026,24 +5027,24 @@
         <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="111.75" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>144</v>
@@ -5052,24 +5053,24 @@
         <v>1901</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="76.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="89.25">
       <c r="A99" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>144</v>
@@ -5078,7 +5079,7 @@
         <v>1917</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>44</v>
@@ -5087,13 +5088,13 @@
     </row>
     <row r="100" spans="1:8" ht="112.5" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>144</v>
@@ -5102,7 +5103,7 @@
         <v>1917</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>44</v>
@@ -5111,13 +5112,13 @@
     </row>
     <row r="101" spans="1:8" ht="51">
       <c r="A101" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>144</v>
@@ -5129,19 +5130,19 @@
         <v>46</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="111.75" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>144</v>
@@ -5150,7 +5151,7 @@
         <v>1958</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>118</v>
@@ -5159,13 +5160,13 @@
     </row>
     <row r="103" spans="1:8" ht="66" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>144</v>
@@ -5183,13 +5184,13 @@
     </row>
     <row r="104" spans="1:8" ht="86.25" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>144</v>
@@ -5198,7 +5199,7 @@
         <v>1958</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>47</v>
@@ -5207,13 +5208,13 @@
     </row>
     <row r="105" spans="1:8" ht="75.75" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>144</v>
@@ -5222,7 +5223,7 @@
         <v>1958</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>180</v>
@@ -5231,13 +5232,13 @@
     </row>
     <row r="106" spans="1:8" ht="76.5">
       <c r="A106" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>144</v>
@@ -5252,18 +5253,18 @@
         <v>97</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="42.75" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>144</v>
@@ -5278,18 +5279,18 @@
         <v>66</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="51">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="63.75">
       <c r="A108" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>144</v>
@@ -5298,7 +5299,7 @@
         <v>2008</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>55</v>
@@ -5309,13 +5310,13 @@
     </row>
     <row r="109" spans="1:8" ht="25.5">
       <c r="A109" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>144</v>
@@ -5333,13 +5334,13 @@
     </row>
     <row r="110" spans="1:8" ht="46.5" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>144</v>
@@ -5348,7 +5349,7 @@
         <v>2008</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>81</v>
@@ -5360,10 +5361,10 @@
         <v>59</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>144</v>
@@ -5372,7 +5373,7 @@
         <v>2008</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>55</v>
@@ -5384,10 +5385,10 @@
         <v>78</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>144</v>
@@ -5396,7 +5397,7 @@
         <v>2008</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>101</v>
@@ -5405,13 +5406,13 @@
     </row>
     <row r="113" spans="1:8" ht="50.25" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>144</v>
@@ -5420,7 +5421,7 @@
         <v>2008</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>70</v>
@@ -5429,13 +5430,13 @@
     </row>
     <row r="114" spans="1:8" ht="30" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>144</v>
@@ -5444,7 +5445,7 @@
         <v>2008</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>70</v>
@@ -5453,13 +5454,13 @@
     </row>
     <row r="115" spans="1:8" ht="58.5" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>144</v>
@@ -5468,22 +5469,22 @@
         <v>2008</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="35.25" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>144</v>
@@ -5492,7 +5493,7 @@
         <v>2008</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>66</v>
@@ -5501,13 +5502,13 @@
     </row>
     <row r="117" spans="1:8" ht="32.25" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>144</v>
@@ -5516,7 +5517,7 @@
         <v>2008</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>70</v>
@@ -5525,13 +5526,13 @@
     </row>
     <row r="118" spans="1:8" ht="63.75">
       <c r="A118" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>145</v>
@@ -5540,24 +5541,24 @@
         <v>2008</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="55.5" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>145</v>
@@ -5566,7 +5567,7 @@
         <v>2008</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>47</v>
@@ -5575,13 +5576,13 @@
     </row>
     <row r="120" spans="1:8" ht="75" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>145</v>
@@ -5590,7 +5591,7 @@
         <v>2008</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>70</v>
@@ -5599,13 +5600,13 @@
     </row>
     <row r="121" spans="1:8" ht="46.5" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>145</v>
@@ -5623,13 +5624,13 @@
     </row>
     <row r="122" spans="1:8" ht="63.75">
       <c r="A122" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>144</v>
@@ -5638,7 +5639,7 @@
         <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>
@@ -5647,13 +5648,13 @@
     </row>
     <row r="123" spans="1:8" ht="84" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>144</v>
@@ -5671,13 +5672,13 @@
     </row>
     <row r="124" spans="1:8" ht="53.25" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>144</v>
@@ -5686,7 +5687,7 @@
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>70</v>
@@ -5695,13 +5696,13 @@
     </row>
     <row r="125" spans="1:8" ht="48.75" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>144</v>
@@ -5710,7 +5711,7 @@
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>55</v>
@@ -5719,13 +5720,13 @@
     </row>
     <row r="126" spans="1:8" ht="38.25">
       <c r="A126" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>144</v>
@@ -5734,22 +5735,22 @@
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" ht="51" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>144</v>
@@ -5758,7 +5759,7 @@
         <v>2013</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>55</v>
@@ -5794,8 +5795,8 @@
   <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5838,15 +5839,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63.75">
+    <row r="2" spans="1:9" ht="76.5">
       <c r="A2" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>147</v>
@@ -5855,13 +5856,13 @@
         <v>1834</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
@@ -5869,13 +5870,13 @@
     </row>
     <row r="3" spans="1:9" ht="117.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>147</v>
@@ -5884,7 +5885,7 @@
         <v>1834</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>44</v>
@@ -5899,10 +5900,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>147</v>
@@ -5911,7 +5912,7 @@
         <v>1834</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>44</v>
@@ -5923,10 +5924,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>147</v>
@@ -5935,7 +5936,7 @@
         <v>1834</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>44</v>
@@ -5947,13 +5948,13 @@
     </row>
     <row r="6" spans="1:9" ht="114.75">
       <c r="A6" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>147</v>
@@ -5962,24 +5963,24 @@
         <v>1834</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="114.75">
       <c r="A7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>147</v>
@@ -5988,7 +5989,7 @@
         <v>1834</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>44</v>
@@ -6003,10 +6004,10 @@
         <v>93</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>147</v>
@@ -6015,7 +6016,7 @@
         <v>1834</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
@@ -6024,13 +6025,13 @@
     </row>
     <row r="9" spans="1:9" ht="89.25">
       <c r="A9" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>147</v>
@@ -6039,24 +6040,24 @@
         <v>1834</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="58.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>147</v>
@@ -6065,7 +6066,7 @@
         <v>1834</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>44</v>
@@ -6079,13 +6080,13 @@
     </row>
     <row r="11" spans="1:9" ht="102">
       <c r="A11" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>147</v>
@@ -6094,24 +6095,24 @@
         <v>1834</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="99" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>147</v>
@@ -6120,7 +6121,7 @@
         <v>1834</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>44</v>
@@ -6131,13 +6132,13 @@
     </row>
     <row r="13" spans="1:9" ht="219" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>147</v>
@@ -6146,24 +6147,24 @@
         <v>1834</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="192.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>147</v>
@@ -6172,22 +6173,22 @@
         <v>1857</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="89.25">
+    <row r="15" spans="1:9" ht="102">
       <c r="A15" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>147</v>
@@ -6196,7 +6197,7 @@
         <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>44</v>
@@ -6207,13 +6208,13 @@
     </row>
     <row r="16" spans="1:9" ht="111" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>147</v>
@@ -6222,7 +6223,7 @@
         <v>1857</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>633</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>44</v>
@@ -6236,13 +6237,13 @@
     </row>
     <row r="17" spans="1:9" ht="108.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>147</v>
@@ -6251,22 +6252,22 @@
         <v>1857</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="102">
+    <row r="18" spans="1:9" ht="114.75">
       <c r="A18" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>147</v>
@@ -6275,24 +6276,24 @@
         <v>1857</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="142.5" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>147</v>
@@ -6301,7 +6302,7 @@
         <v>1857</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>44</v>
@@ -6316,7 +6317,7 @@
         <v>171</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>147</v>
@@ -6325,7 +6326,7 @@
         <v>1863</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>44</v>
@@ -6337,10 +6338,10 @@
         <v>155</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>147</v>
@@ -6349,22 +6350,22 @@
         <v>1863</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="114.75">
+    <row r="22" spans="1:9" ht="140.25">
       <c r="A22" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>147</v>
@@ -6373,7 +6374,7 @@
         <v>1863</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>44</v>
@@ -6382,13 +6383,13 @@
     </row>
     <row r="23" spans="1:9" ht="76.5">
       <c r="A23" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>147</v>
@@ -6397,7 +6398,7 @@
         <v>1863</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>44</v>
@@ -6406,13 +6407,13 @@
     </row>
     <row r="24" spans="1:9" ht="91.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>147</v>
@@ -6421,22 +6422,22 @@
         <v>1863</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="127.5">
+    <row r="25" spans="1:9" ht="153">
       <c r="A25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>147</v>
@@ -6445,24 +6446,24 @@
         <v>1863</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="63.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="76.5">
       <c r="A26" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>147</v>
@@ -6471,22 +6472,22 @@
         <v>1863</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="118.5" customHeight="1">
+    <row r="27" spans="1:9" ht="127.5">
       <c r="A27" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>147</v>
@@ -6495,7 +6496,7 @@
         <v>1863</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>44</v>
@@ -6504,13 +6505,13 @@
     </row>
     <row r="28" spans="1:9" ht="142.5" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>147</v>
@@ -6519,7 +6520,7 @@
         <v>1863</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>44</v>
@@ -6528,13 +6529,13 @@
     </row>
     <row r="29" spans="1:9" ht="102">
       <c r="A29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>147</v>
@@ -6543,7 +6544,7 @@
         <v>1863</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>44</v>
@@ -6552,13 +6553,13 @@
     </row>
     <row r="30" spans="1:9" ht="114.75">
       <c r="A30" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>147</v>
@@ -6567,27 +6568,27 @@
         <v>1872</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I30" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="127.5">
+    <row r="31" spans="1:9" ht="140.25">
       <c r="A31" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>147</v>
@@ -6596,7 +6597,7 @@
         <v>1872</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>44</v>
@@ -6605,13 +6606,13 @@
     </row>
     <row r="32" spans="1:9" ht="104.25" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>147</v>
@@ -6620,22 +6621,22 @@
         <v>1872</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="89.25">
+    <row r="33" spans="1:9" ht="102">
       <c r="A33" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>147</v>
@@ -6644,7 +6645,7 @@
         <v>1872</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>44</v>
@@ -6653,13 +6654,13 @@
     </row>
     <row r="34" spans="1:9" ht="140.25">
       <c r="A34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>147</v>
@@ -6668,24 +6669,24 @@
         <v>1875</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="82.5" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>147</v>
@@ -6694,7 +6695,7 @@
         <v>1875</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>44</v>
@@ -6703,13 +6704,13 @@
     </row>
     <row r="36" spans="1:9" ht="81" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>147</v>
@@ -6718,7 +6719,7 @@
         <v>1875</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>44</v>
@@ -6727,13 +6728,13 @@
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>147</v>
@@ -6742,7 +6743,7 @@
         <v>1875</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>44</v>
@@ -6751,13 +6752,13 @@
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>147</v>
@@ -6766,7 +6767,7 @@
         <v>1875</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>44</v>
@@ -6775,13 +6776,13 @@
     </row>
     <row r="39" spans="1:9" ht="76.5">
       <c r="A39" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>147</v>
@@ -6790,7 +6791,7 @@
         <v>1875</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>44</v>
@@ -6799,15 +6800,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="114.75">
+    <row r="40" spans="1:9" ht="127.5">
       <c r="A40" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>147</v>
@@ -6816,13 +6817,13 @@
         <v>1875</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>318</v>
+        <v>633</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="102">
@@ -6830,10 +6831,10 @@
         <v>149</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>147</v>
@@ -6842,13 +6843,13 @@
         <v>1879</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="76.5">
@@ -6856,10 +6857,10 @@
         <v>151</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>147</v>
@@ -6868,24 +6869,24 @@
         <v>1879</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="76.5">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="89.25">
       <c r="A43" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>147</v>
@@ -6894,7 +6895,7 @@
         <v>1879</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>44</v>
@@ -6903,13 +6904,13 @@
     </row>
     <row r="44" spans="1:9" ht="89.25">
       <c r="A44" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>147</v>
@@ -6918,48 +6919,46 @@
         <v>1879</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="89.25">
+    <row r="45" spans="1:9" ht="114.75">
       <c r="A45" s="7" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E45" s="7">
         <v>1888</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>643</v>
-      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="140.25">
       <c r="A46" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>147</v>
@@ -6968,24 +6967,24 @@
         <v>1910</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="114.75">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="127.5">
       <c r="A47" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>147</v>
@@ -6994,22 +6993,22 @@
         <v>1910</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:9" ht="89.25">
+    <row r="48" spans="1:9" ht="102">
       <c r="A48" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>147</v>
@@ -7018,27 +7017,27 @@
         <v>1910</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="I48" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="51">
+    <row r="49" spans="1:9" ht="63.75">
       <c r="A49" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>147</v>
@@ -7047,7 +7046,7 @@
         <v>1910</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>44</v>
@@ -7056,13 +7055,13 @@
     </row>
     <row r="50" spans="1:9" ht="93.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>147</v>
@@ -7071,7 +7070,7 @@
         <v>1910</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>44</v>
@@ -7080,13 +7079,13 @@
     </row>
     <row r="51" spans="1:9" ht="117" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>147</v>
@@ -7095,7 +7094,7 @@
         <v>1910</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>44</v>
@@ -7104,13 +7103,13 @@
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>147</v>
@@ -7119,7 +7118,7 @@
         <v>1910</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>45</v>
@@ -7128,13 +7127,13 @@
     </row>
     <row r="53" spans="1:9" ht="102">
       <c r="A53" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>147</v>
@@ -7143,22 +7142,22 @@
         <v>1922</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>318</v>
+        <v>633</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:9" ht="51">
       <c r="A54" s="7" t="s">
-        <v>507</v>
+        <v>679</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>147</v>
@@ -7167,22 +7166,22 @@
         <v>1987</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="178.5">
+    <row r="55" spans="1:9" ht="191.25">
       <c r="A55" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>147</v>
@@ -7191,7 +7190,7 @@
         <v>1995</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>45</v>
@@ -7203,10 +7202,10 @@
         <v>143</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>147</v>
@@ -7215,7 +7214,7 @@
         <v>1995</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>45</v>
@@ -7225,15 +7224,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="102">
+    <row r="57" spans="1:9" ht="114.75">
       <c r="A57" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>147</v>
@@ -7242,7 +7241,7 @@
         <v>1995</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>45</v>
@@ -7251,13 +7250,13 @@
     </row>
     <row r="58" spans="1:9" ht="54.75" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>147</v>
@@ -7266,22 +7265,22 @@
         <v>1995</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="76.5">
+    <row r="59" spans="1:9" ht="89.25">
       <c r="A59" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>147</v>
@@ -7290,22 +7289,22 @@
         <v>1995</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="89.25">
+    <row r="60" spans="1:9" ht="102">
       <c r="A60" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>147</v>
@@ -7314,7 +7313,7 @@
         <v>1995</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>45</v>
@@ -7323,13 +7322,13 @@
     </row>
     <row r="61" spans="1:9" ht="76.5">
       <c r="A61" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>147</v>
@@ -7338,22 +7337,22 @@
         <v>1995</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="114.75">
+    <row r="62" spans="1:9" ht="127.5">
       <c r="A62" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>147</v>
@@ -7362,7 +7361,7 @@
         <v>1995</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>45</v>
@@ -7371,13 +7370,13 @@
     </row>
     <row r="63" spans="1:9" ht="89.25">
       <c r="A63" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>147</v>
@@ -7386,7 +7385,7 @@
         <v>1995</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>45</v>
@@ -7398,10 +7397,10 @@
         <v>148</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>147</v>
@@ -7410,7 +7409,7 @@
         <v>1995</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>45</v>
@@ -7422,10 +7421,10 @@
         <v>98</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>145</v>
@@ -7434,24 +7433,24 @@
         <v>2005</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="63.75">
       <c r="A66" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>147</v>
@@ -7460,7 +7459,7 @@
         <v>2007</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>45</v>
@@ -7469,13 +7468,13 @@
     </row>
     <row r="67" spans="1:9" ht="38.25">
       <c r="A67" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>147</v>
@@ -7484,7 +7483,7 @@
         <v>2007</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>45</v>
@@ -7493,13 +7492,13 @@
     </row>
     <row r="68" spans="1:9" ht="38.25">
       <c r="A68" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>147</v>
@@ -7508,7 +7507,7 @@
         <v>2007</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>45</v>
@@ -7517,13 +7516,13 @@
     </row>
     <row r="69" spans="1:9" ht="51">
       <c r="A69" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>145</v>
@@ -7532,7 +7531,7 @@
         <v>2008</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>103</v>
@@ -7541,13 +7540,13 @@
     </row>
     <row r="70" spans="1:9" ht="114.75">
       <c r="A70" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>145</v>
@@ -7556,24 +7555,24 @@
         <v>2008</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="38.25">
       <c r="A71" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>145</v>
@@ -7582,7 +7581,7 @@
         <v>2008</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>83</v>
@@ -7594,13 +7593,13 @@
     </row>
     <row r="72" spans="1:9" ht="140.25">
       <c r="A72" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>145</v>
@@ -7609,7 +7608,7 @@
         <v>2008</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>45</v>
@@ -7620,13 +7619,13 @@
     </row>
     <row r="73" spans="1:9" ht="25.5">
       <c r="A73" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>145</v>
@@ -7635,7 +7634,7 @@
         <v>2008</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>45</v>
@@ -7647,10 +7646,10 @@
         <v>87</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>145</v>
@@ -7659,7 +7658,7 @@
         <v>2008</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>70</v>
@@ -7668,13 +7667,13 @@
     </row>
     <row r="75" spans="1:9" ht="63.75">
       <c r="A75" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>145</v>
@@ -7683,22 +7682,22 @@
         <v>2008</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:9" ht="38.25">
+    <row r="76" spans="1:9" ht="51">
       <c r="A76" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>145</v>
@@ -7707,7 +7706,7 @@
         <v>2008</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>84</v>
@@ -7716,13 +7715,13 @@
     </row>
     <row r="77" spans="1:9" ht="127.5">
       <c r="A77" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>145</v>
@@ -7731,24 +7730,24 @@
         <v>2008</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="80.25" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>145</v>
@@ -7757,24 +7756,24 @@
         <v>2008</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="98.25" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>145</v>
@@ -7783,24 +7782,24 @@
         <v>2008</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="89.25">
       <c r="A80" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>145</v>
@@ -7809,24 +7808,24 @@
         <v>2008</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45.75" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>145</v>
@@ -7835,7 +7834,7 @@
         <v>2008</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>85</v>
@@ -7844,13 +7843,13 @@
     </row>
     <row r="82" spans="1:8" ht="51">
       <c r="A82" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>145</v>
@@ -7859,7 +7858,7 @@
         <v>2008</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>45</v>
@@ -7868,22 +7867,22 @@
     </row>
     <row r="83" spans="1:8" ht="51">
       <c r="A83" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E83" s="7">
         <v>2008</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>77</v>
@@ -7895,10 +7894,10 @@
         <v>136</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>147</v>
@@ -7907,24 +7906,24 @@
         <v>2012</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="114.75">
       <c r="A85" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>147</v>
@@ -7933,7 +7932,7 @@
         <v>2012</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>66</v>
@@ -7942,13 +7941,13 @@
     </row>
     <row r="86" spans="1:8" ht="149.25" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>147</v>
@@ -7957,7 +7956,7 @@
         <v>2012</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>128</v>
@@ -7966,13 +7965,13 @@
     </row>
     <row r="87" spans="1:8" ht="153">
       <c r="A87" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>147</v>
@@ -7981,7 +7980,7 @@
         <v>2012</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>74</v>
@@ -7990,13 +7989,13 @@
     </row>
     <row r="88" spans="1:8" ht="191.25">
       <c r="A88" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>147</v>
@@ -8005,24 +8004,24 @@
         <v>2012</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="58.5" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>147</v>
@@ -8031,7 +8030,7 @@
         <v>2012</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>45</v>
@@ -8040,13 +8039,13 @@
     </row>
     <row r="90" spans="1:8" ht="114.75">
       <c r="A90" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>147</v>
@@ -8055,7 +8054,7 @@
         <v>2012</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>45</v>
@@ -8069,10 +8068,10 @@
         <v>138</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>147</v>
@@ -8081,7 +8080,7 @@
         <v>2012</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>45</v>
@@ -8092,13 +8091,13 @@
     </row>
     <row r="92" spans="1:8" ht="81.75" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>147</v>
@@ -8107,7 +8106,7 @@
         <v>2012</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>45</v>
@@ -8118,13 +8117,13 @@
     </row>
     <row r="93" spans="1:8" ht="127.5">
       <c r="A93" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>147</v>
@@ -8133,24 +8132,24 @@
         <v>2012</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="127.5">
       <c r="A94" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>147</v>
@@ -8159,24 +8158,24 @@
         <v>2012</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>142</v>
+        <v>684</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="102">
       <c r="A95" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>147</v>
@@ -8185,22 +8184,22 @@
         <v>2012</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="105" customHeight="1">
+    <row r="96" spans="1:8" ht="116.25" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>147</v>
@@ -8209,7 +8208,7 @@
         <v>2012</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>47</v>
@@ -8218,13 +8217,13 @@
     </row>
     <row r="97" spans="1:8" ht="129.75" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>147</v>
@@ -8233,7 +8232,7 @@
         <v>2012</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>70</v>
@@ -8242,13 +8241,13 @@
     </row>
     <row r="98" spans="1:8" ht="63.75">
       <c r="A98" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>147</v>
@@ -8257,7 +8256,7 @@
         <v>2013</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>81</v>
@@ -8266,13 +8265,13 @@
     </row>
     <row r="99" spans="1:8" ht="127.5">
       <c r="A99" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>147</v>
@@ -8281,13 +8280,13 @@
         <v>2013</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="35.25" customHeight="1">
@@ -8298,7 +8297,7 @@
         <v>125</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>147</v>
@@ -8307,7 +8306,7 @@
         <v>2013</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>45</v>
@@ -8316,13 +8315,13 @@
     </row>
     <row r="101" spans="1:8" ht="48" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>147</v>
@@ -8331,7 +8330,7 @@
         <v>2013</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>47</v>
@@ -8340,13 +8339,13 @@
     </row>
     <row r="102" spans="1:8" ht="140.25">
       <c r="A102" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>147</v>
@@ -8355,10 +8354,10 @@
         <v>2013</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>146</v>
@@ -8366,13 +8365,13 @@
     </row>
     <row r="103" spans="1:8" ht="63.75">
       <c r="A103" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>147</v>
@@ -8381,7 +8380,7 @@
         <v>2013</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>70</v>
@@ -8390,13 +8389,13 @@
     </row>
     <row r="104" spans="1:8" ht="109.5" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>147</v>
@@ -8405,7 +8404,7 @@
         <v>2013</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>128</v>
@@ -8420,7 +8419,7 @@
         <v>130</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>147</v>
@@ -8429,7 +8428,7 @@
         <v>2013</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>74</v>
@@ -8438,13 +8437,13 @@
     </row>
     <row r="106" spans="1:8" ht="63.75">
       <c r="A106" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>147</v>
@@ -8453,7 +8452,7 @@
         <v>2013</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>132</v>
@@ -8462,13 +8461,13 @@
     </row>
     <row r="107" spans="1:8" ht="76.5">
       <c r="A107" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>147</v>
@@ -8477,7 +8476,7 @@
         <v>2013</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>84</v>
@@ -8492,7 +8491,7 @@
         <v>135</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>147</v>
@@ -8501,7 +8500,7 @@
         <v>2013</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>45</v>
@@ -8510,13 +8509,13 @@
     </row>
     <row r="109" spans="1:8" ht="38.25">
       <c r="A109" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>147</v>
@@ -8525,7 +8524,7 @@
         <v>2013</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>45</v>
@@ -8534,13 +8533,13 @@
     </row>
     <row r="110" spans="1:8" ht="89.25">
       <c r="A110" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>147</v>
@@ -8549,14 +8548,14 @@
         <v>2013</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="63.75">
+    <row r="111" spans="1:8" ht="76.5">
       <c r="A111" s="7" t="s">
         <v>107</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>147</v>
@@ -8573,22 +8572,22 @@
         <v>2013</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="51">
+    <row r="112" spans="1:8" ht="63.75">
       <c r="A112" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>147</v>
@@ -8597,22 +8596,22 @@
         <v>2013</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="102">
+    <row r="113" spans="1:8" ht="114.75">
       <c r="A113" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>147</v>
@@ -8621,24 +8620,24 @@
         <v>2013</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="51">
       <c r="A114" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>147</v>
@@ -8647,7 +8646,7 @@
         <v>2013</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>45</v>
@@ -8658,13 +8657,13 @@
     </row>
     <row r="115" spans="1:8" ht="114.75">
       <c r="A115" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>147</v>
@@ -8673,24 +8672,24 @@
         <v>2013</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="54.75" customHeight="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="63.75">
       <c r="A116" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>147</v>
@@ -8699,7 +8698,7 @@
         <v>2013</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>45</v>
@@ -8708,13 +8707,13 @@
     </row>
     <row r="117" spans="1:8" ht="51">
       <c r="A117" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>147</v>
@@ -8723,22 +8722,22 @@
         <v>2013</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="76.5">
+    <row r="118" spans="1:8" ht="89.25">
       <c r="A118" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>147</v>
@@ -8747,7 +8746,7 @@
         <v>2013</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>294</v>
+        <v>682</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>45</v>
@@ -8762,7 +8761,7 @@
         <v>113</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>147</v>
@@ -8771,7 +8770,7 @@
         <v>2013</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>45</v>
@@ -8780,13 +8779,13 @@
     </row>
     <row r="120" spans="1:8" ht="78.75" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>147</v>
@@ -8795,7 +8794,7 @@
         <v>2013</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>45</v>
@@ -8804,13 +8803,13 @@
     </row>
     <row r="121" spans="1:8" ht="87.75" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>147</v>
@@ -8819,7 +8818,7 @@
         <v>2013</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>45</v>
@@ -8828,13 +8827,13 @@
     </row>
     <row r="122" spans="1:8" ht="90" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>147</v>
@@ -8843,7 +8842,7 @@
         <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>103</v>
@@ -8858,7 +8857,7 @@
         <v>119</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>147</v>
@@ -8867,13 +8866,13 @@
         <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="100.5" customHeight="1">
@@ -8881,10 +8880,10 @@
         <v>120</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>147</v>
@@ -8893,24 +8892,24 @@
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>141</v>
+        <v>683</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>121</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="111.75" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>147</v>
@@ -8919,7 +8918,7 @@
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>45</v>
@@ -9014,7 +9013,7 @@
         <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="38.25">
@@ -9085,7 +9084,7 @@
     </row>
     <row r="6" spans="1:8" ht="409.5">
       <c r="A6" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>72</v>
@@ -9104,7 +9103,7 @@
         <v>70</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.25">
@@ -9172,12 +9171,12 @@
         <v>45</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>80</v>
@@ -9199,7 +9198,7 @@
     </row>
     <row r="11" spans="1:8" ht="89.25">
       <c r="A11" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>80</v>
@@ -9221,7 +9220,7 @@
     </row>
     <row r="12" spans="1:8" ht="76.5">
       <c r="A12" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>80</v>
@@ -9243,7 +9242,7 @@
     </row>
     <row r="13" spans="1:8" ht="204">
       <c r="A13" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>86</v>
@@ -9265,10 +9264,10 @@
     </row>
     <row r="14" spans="1:8" ht="178.5">
       <c r="A14" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>54</v>
@@ -9353,7 +9352,7 @@
     </row>
     <row r="18" spans="1:8" ht="369.75">
       <c r="H18" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="63.75">
@@ -9381,7 +9380,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -9398,7 +9397,7 @@
     </row>
     <row r="23" spans="1:8" ht="76.5">
       <c r="A23" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>36</v>
@@ -9418,7 +9417,7 @@
     </row>
     <row r="24" spans="1:8" ht="102">
       <c r="A24" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
@@ -9429,7 +9428,7 @@
         <v>1888</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>43</v>
@@ -9440,7 +9439,7 @@
     </row>
     <row r="25" spans="1:8" ht="140.25">
       <c r="A25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>32</v>
@@ -9466,10 +9465,10 @@
     </row>
     <row r="26" spans="1:8" ht="63.75">
       <c r="A26" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>54</v>
@@ -9487,7 +9486,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="102">
@@ -9518,7 +9517,7 @@
     </row>
     <row r="28" spans="1:8" ht="140.25">
       <c r="A28" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>1</v>
@@ -9533,13 +9532,13 @@
         <v>2002</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.25">
@@ -9565,15 +9564,15 @@
         <v>45</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="127.5">
       <c r="A30" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>54</v>
@@ -9591,12 +9590,12 @@
         <v>45</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="89.25">
       <c r="A31" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>1</v>
@@ -9617,7 +9616,7 @@
         <v>45</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="38.25">
@@ -9643,15 +9642,15 @@
         <v>45</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="114.75">
       <c r="A33" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>54</v>
@@ -9669,7 +9668,7 @@
         <v>45</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25">
@@ -9695,15 +9694,15 @@
         <v>45</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="63.75">
       <c r="A35" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>54</v>
@@ -9721,15 +9720,15 @@
         <v>45</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51">
       <c r="A36" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>54</v>
@@ -9747,7 +9746,7 @@
         <v>45</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="38.25">
@@ -9755,7 +9754,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>54</v>
@@ -9773,7 +9772,7 @@
         <v>45</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25">
@@ -9799,15 +9798,15 @@
         <v>45</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="114.75">
       <c r="A39" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>54</v>
@@ -9825,7 +9824,7 @@
         <v>45</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.5">
@@ -9833,7 +9832,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>54</v>
@@ -9851,7 +9850,7 @@
         <v>45</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="409.5">
@@ -9859,7 +9858,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>54</v>
@@ -9877,7 +9876,7 @@
         <v>45</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25">
@@ -9903,7 +9902,7 @@
         <v>45</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25">
@@ -9911,7 +9910,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>54</v>
@@ -9929,12 +9928,12 @@
         <v>45</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="89.25">
       <c r="A44" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>10</v>
@@ -9955,7 +9954,7 @@
         <v>45</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38.25">
@@ -9981,7 +9980,7 @@
         <v>45</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="38.25">
@@ -10007,7 +10006,7 @@
         <v>45</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25">
@@ -10015,7 +10014,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>54</v>
@@ -10033,15 +10032,15 @@
         <v>45</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51">
       <c r="A48" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>54</v>
@@ -10059,12 +10058,12 @@
         <v>45</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="76.5">
       <c r="A49" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>10</v>
@@ -10085,12 +10084,12 @@
         <v>45</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="102">
       <c r="A50" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>10</v>
@@ -10111,7 +10110,7 @@
         <v>45</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="38.25">
@@ -10137,7 +10136,7 @@
         <v>45</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25">
@@ -10160,10 +10159,10 @@
         <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="38.25">
@@ -10187,7 +10186,7 @@
     </row>
     <row r="54" spans="1:8" ht="38.25">
       <c r="A54" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>28</v>
@@ -10206,7 +10205,7 @@
     </row>
     <row r="55" spans="1:8" ht="102">
       <c r="A55" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>28</v>
@@ -10282,59 +10281,59 @@
     </row>
     <row r="59" spans="1:8" ht="76.5">
       <c r="A59" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="76.5">
       <c r="A61" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="89.25">
       <c r="A63" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="38.25">
       <c r="B65" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="51">
       <c r="B66" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="38.25">
       <c r="A67" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5">
       <c r="A68" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25.5">
       <c r="B69" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="51">
       <c r="A70" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>82</v>
@@ -10342,213 +10341,213 @@
     </row>
     <row r="71" spans="1:3" ht="63.75">
       <c r="A71" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="38.25">
       <c r="A72" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="76.5">
       <c r="A73" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25.5">
       <c r="A74" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="63.75">
       <c r="A76" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51">
       <c r="A77" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="114.75">
       <c r="A78" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="63.75">
       <c r="A79" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="89.25">
       <c r="A80" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="89.25">
       <c r="A81" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="38.25">
       <c r="A82" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="38.25">
       <c r="A83" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="25.5">
       <c r="A84" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="114.75">
       <c r="A86" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
       <c r="B87" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="25.5">
       <c r="B88" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="409.5">
       <c r="A89" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="38.25">
       <c r="A90" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="114.75">
       <c r="A91" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="76.5">
       <c r="A93" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="76.5">
       <c r="A94" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="409.5">
       <c r="A95" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102">
       <c r="A96" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="102">
       <c r="A97" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="114.75">
       <c r="A98" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="409.5">
       <c r="A99" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="409.5">
       <c r="A100" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="38.25">
       <c r="A102" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="51">
       <c r="A103" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="63.75">
       <c r="A104" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="89.25">
       <c r="A105" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="63.75">
       <c r="A107" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="38.25">
       <c r="A110" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="76.5">
       <c r="A111" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="51">
       <c r="A113" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="102">
       <c r="A114" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="51">
       <c r="A115" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="102">
       <c r="A116" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51">
@@ -10558,22 +10557,22 @@
     </row>
     <row r="118" spans="1:8" ht="51">
       <c r="A118" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="76.5">
       <c r="A119" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="63.75">
       <c r="A121" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="76.5">
       <c r="A123" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
